--- a/procesos/comentarios.xlsx
+++ b/procesos/comentarios.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -730,10 +730,79 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>46001.64258682502</v>
+        <v>46001.6425868287</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>46007</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>PROCESO DE REGISTRO Y CIERRE DE ATENCIÓN POR FALLECIMIENTO</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>quiero revisar este proceso</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>jair</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>46014.35867870371</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>46014</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PROCEDIMIENTOS DE PQRS </t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>quiero este</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>jair</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>46014.36158993056</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>46014</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PROCEDIMIENTOS DE PQRS </t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>no da</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>jair</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>46014.36193435869</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>46014</v>
       </c>
     </row>
   </sheetData>
